--- a/The_Forge/Task_4/Risk-Severity-Matrix-Template.xlsx
+++ b/The_Forge/Task_4/Risk-Severity-Matrix-Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adbar\Project-work\The_Forge\Task_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14AFF2DC-1EE0-4857-AF70-7ACA2ACBE673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7A9C07-506D-4C9E-B75E-ACED55362E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32595" yWindow="630" windowWidth="21600" windowHeight="15045" xr2:uid="{914F6355-40E7-4612-A56C-CF9E7C7DF272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{914F6355-40E7-4612-A56C-CF9E7C7DF272}"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Severity Matrix Template" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,24 @@
     <definedName name="Transaction">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>© TemplateLab.com</t>
   </si>
@@ -110,12 +123,33 @@
   <si>
     <t>Further action is required to reduce the risk level. Risk needs to be reviewed continuously.</t>
   </si>
+  <si>
+    <t>Severtiy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of issues </t>
+  </si>
+  <si>
+    <t>Extreme</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informational </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +199,14 @@
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,7 +233,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF05A28"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,16 +354,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -320,7 +378,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -328,13 +410,242 @@
     <cellStyle name="Hyperlink 2" xfId="1" xr:uid="{B1308ECF-5545-43C3-ADD2-7AA0402E8BB5}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Bahnschrift"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF05A28"/>
       <color rgb="FFD4140A"/>
       <color rgb="FFF54137"/>
-      <color rgb="FFF05A28"/>
       <color rgb="FFFAB43C"/>
       <color rgb="FF3CB446"/>
     </mruColors>
@@ -28544,6 +28855,20 @@
     <xdr:clientData/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{167D0A50-744E-4ED6-B7CD-B1705D3158A7}" name="Table1" displayName="Table1" ref="D20:H21" headerRowDxfId="11" dataDxfId="5">
+  <autoFilter ref="D20:H21" xr:uid="{167D0A50-744E-4ED6-B7CD-B1705D3158A7}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{2154F850-B027-48DB-95F5-7BDBD7E58724}" name="Extreme" totalsRowLabel="Total" dataDxfId="10" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{79A8D38A-0697-49CF-9326-C1DD470F9C3A}" name="Major" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6E43C9DF-4A95-4FCC-B97C-63F611D29420}" name="Moderate" dataDxfId="8" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{49096CA5-2349-411B-8565-DF2F187061A8}" name="Minor" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{63E3F7D2-7469-4D00-82D2-529CFB5D61F7}" name="Informational " dataDxfId="6" totalsRowDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -28843,10 +29168,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6BF679-CFEC-441B-A1E9-3AC04703DFC6}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -28872,15 +29197,15 @@
     </row>
     <row r="2" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -28896,23 +29221,23 @@
     </row>
     <row r="4" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -28932,10 +29257,10 @@
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -28945,10 +29270,10 @@
     </row>
     <row r="7" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -28958,10 +29283,10 @@
     </row>
     <row r="8" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -28971,10 +29296,10 @@
     </row>
     <row r="9" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -28984,10 +29309,10 @@
     </row>
     <row r="10" spans="1:9" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -29008,15 +29333,15 @@
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -29025,13 +29350,13 @@
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -29040,13 +29365,13 @@
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -29055,13 +29380,13 @@
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -29070,13 +29395,13 @@
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -29085,13 +29410,13 @@
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -29105,8 +29430,49 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
@@ -29116,17 +29482,14 @@
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
